--- a/疫情相似问-16至30.xlsx
+++ b/疫情相似问-16至30.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17420" windowHeight="11720"/>
+    <workbookView windowWidth="17480" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
   <si>
     <t>标准问</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>应对新型冠状病毒感染的重病患者，可以采取哪些措施</t>
+  </si>
+  <si>
+    <t>怎么应对新型冠状病毒，有什么好的方法</t>
   </si>
   <si>
     <t>当前防控疫情最有效的办法是什么</t>
@@ -600,10 +603,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -614,17 +617,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,6 +631,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -644,9 +646,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,42 +682,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -712,24 +701,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,11 +739,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -767,25 +770,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,157 +932,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,8 +967,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,39 +1002,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,6 +1036,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1063,148 +1066,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1533,8 +1536,8 @@
   <sheetPr/>
   <dimension ref="A1:B220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="1"/>
@@ -1725,755 +1728,760 @@
         <v>37</v>
       </c>
     </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B120" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B135" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B150" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B165" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B180" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B195" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B210" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
